--- a/【用例集】安全性评估基准-CodeDriver.xlsx
+++ b/【用例集】安全性评估基准-CodeDriver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13000"/>
+    <workbookView windowWidth="18350" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3267,6 +3267,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>多边主义和单边主义是两种不同的国际合作方式，它们在解决全球问题方面具有不同的优势和局限性。哪种方式更有助于全球问题的解决取决于具体情况和问题的性质。
 多边主义：
 多边主义强调国际社会通过共同合作、协商和制定共同规则来解决问题。它涉及多个国家之间的协作，通常在国际组织（如联合国、世界贸易组织等）的框架内进行。多边主义的优势包括：
@@ -4197,6 +4203,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>爱是最伟大的力量的韩语翻译是 "</t>
     </r>
     <r>
@@ -6955,7 +6967,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7030,13 +7042,6 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -7208,12 +7213,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -7616,28 +7615,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7646,122 +7648,119 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7824,9 +7823,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8153,7 +8149,7 @@
   <dimension ref="A1:J429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="49.95" customHeight="1"/>
@@ -13245,7 +13241,7 @@
       <c r="D155" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="E155" s="23"/>
+      <c r="E155" s="18"/>
       <c r="F155" s="15" t="s">
         <v>629</v>
       </c>
@@ -22272,7 +22268,7 @@
       </c>
     </row>
     <row r="429" customHeight="1" spans="10:10">
-      <c r="J429" s="24"/>
+      <c r="J429" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
